--- a/data/heart_disease_database.xlsx
+++ b/data/heart_disease_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OGUNDEPO EZEKIEL .A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezekiel Adebayo\Desktop\Heart-disease-paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C668942-DF69-4886-8C77-FA13D61D5CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55D754-2409-498F-B619-0D99747829B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="processed.cleveland" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -964,21 +964,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>63</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>67</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>67</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>37</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>41</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>56</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>57</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>63</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>53</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>57</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>56</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>56</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>52</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>57</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>54</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>48</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>49</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>64</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>58</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>58</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>58</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>60</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>50</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>58</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>66</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>43</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>40</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>69</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>60</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>64</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>59</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>44</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>42</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>43</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>57</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>55</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>61</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>65</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>71</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>59</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>61</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>58</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>51</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>50</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>65</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>53</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>41</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>65</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>44</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>44</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>60</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>50</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>41</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>54</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>51</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>51</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>46</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>58</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>54</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>54</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>60</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>60</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>54</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>59</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>46</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>65</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>67</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>62</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>65</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>44</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>65</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>60</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>51</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>48</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>58</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>45</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>53</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>39</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>68</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>52</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>44</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>47</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>53</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>53</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>51</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>66</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>62</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>62</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>44</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>63</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>52</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>59</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>60</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>52</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>48</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>45</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>34</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>57</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>71</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>49</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>54</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>59</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>57</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>61</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>39</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>61</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>56</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>52</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>43</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>62</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>41</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>58</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>35</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>63</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>65</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>48</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>63</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>51</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>55</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>65</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>45</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>56</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>54</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>44</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>62</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>54</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>51</v>
       </c>
@@ -6830,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>29</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>51</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>43</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>55</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>70</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>62</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>35</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>51</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>59</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>59</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>52</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>64</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>58</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>47</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>57</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>41</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>45</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>60</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>52</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>42</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>67</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>55</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>64</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>70</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>51</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>58</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>60</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>68</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>46</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>77</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>54</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>58</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>48</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>57</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>52</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>54</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>35</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>45</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>70</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>53</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>59</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>62</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>64</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>57</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>52</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>56</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>43</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>53</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>48</v>
       </c>
@@ -8986,7 +8987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>56</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>42</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>59</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>60</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>63</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>42</v>
       </c>
@@ -9250,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>66</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>54</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>69</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>50</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>51</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>43</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>62</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>68</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>67</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>69</v>
       </c>
@@ -9690,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>45</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>50</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>59</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>50</v>
       </c>
@@ -9866,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>64</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>57</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>64</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>43</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>45</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>58</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>50</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>55</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>62</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>37</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>38</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>41</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>66</v>
       </c>
@@ -10438,7 +10439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>52</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>56</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>46</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>46</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>64</v>
       </c>
@@ -10658,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>59</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>41</v>
       </c>
@@ -10746,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>54</v>
       </c>
@@ -10790,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>39</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>53</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>63</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>34</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>47</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>67</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>54</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>66</v>
       </c>
@@ -11142,7 +11143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>52</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>55</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>49</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>74</v>
       </c>
@@ -11318,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>54</v>
       </c>
@@ -11362,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>54</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>56</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>46</v>
       </c>
@@ -11494,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>49</v>
       </c>
@@ -11538,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>42</v>
       </c>
@@ -11582,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>41</v>
       </c>
@@ -11626,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>41</v>
       </c>
@@ -11670,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>49</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>61</v>
       </c>
@@ -11758,7 +11759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>60</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>67</v>
       </c>
@@ -11846,7 +11847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>58</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>47</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>52</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>62</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>57</v>
       </c>
@@ -12066,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>58</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>64</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>51</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>43</v>
       </c>
@@ -12242,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>42</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>67</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>76</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>70</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>57</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>44</v>
       </c>
@@ -12506,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>58</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>60</v>
       </c>
@@ -12594,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>44</v>
       </c>
@@ -12638,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>61</v>
       </c>
@@ -12682,7 +12683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>42</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>52</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>59</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>40</v>
       </c>
@@ -12858,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>42</v>
       </c>
@@ -12902,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>61</v>
       </c>
@@ -12946,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>66</v>
       </c>
@@ -12990,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>46</v>
       </c>
@@ -13034,7 +13035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>71</v>
       </c>
@@ -13078,7 +13079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>59</v>
       </c>
@@ -13122,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>64</v>
       </c>
@@ -13166,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>66</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>39</v>
       </c>
@@ -13254,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>57</v>
       </c>
@@ -13298,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>58</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>57</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>47</v>
       </c>
@@ -13430,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>55</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>35</v>
       </c>
@@ -13518,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>61</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>58</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>58</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>58</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>56</v>
       </c>
@@ -13738,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>56</v>
       </c>
@@ -13782,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>67</v>
       </c>
@@ -13826,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>55</v>
       </c>
@@ -13870,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>44</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>63</v>
       </c>
@@ -13958,7 +13959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>63</v>
       </c>
@@ -14002,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>41</v>
       </c>
@@ -14046,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>59</v>
       </c>
@@ -14090,7 +14091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>57</v>
       </c>
@@ -14134,7 +14135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>45</v>
       </c>
@@ -14178,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>68</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>57</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>57</v>
       </c>
@@ -14310,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>38</v>
       </c>
@@ -14355,30 +14356,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N304"/>
+  <autoFilter ref="A1:N304" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.5703125" customWidth="1"/>
-    <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14424,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>70</v>
       </c>
@@ -14467,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>67</v>
       </c>
@@ -14511,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>57</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>64</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>74</v>
       </c>
@@ -14643,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>65</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>56</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>59</v>
       </c>
@@ -14775,7 +14776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60</v>
       </c>
@@ -14819,7 +14820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>63</v>
       </c>
@@ -14863,7 +14864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59</v>
       </c>
@@ -14907,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>53</v>
       </c>
@@ -14951,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>44</v>
       </c>
@@ -14995,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>61</v>
       </c>
@@ -15039,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>57</v>
       </c>
@@ -15083,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>71</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>46</v>
       </c>
@@ -15171,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>53</v>
       </c>
@@ -15215,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>64</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>40</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>67</v>
       </c>
@@ -15347,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>48</v>
       </c>
@@ -15391,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>43</v>
       </c>
@@ -15435,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>47</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>54</v>
       </c>
@@ -15523,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>48</v>
       </c>
@@ -15567,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>46</v>
       </c>
@@ -15611,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>51</v>
       </c>
@@ -15655,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>58</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>71</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>57</v>
       </c>
@@ -15787,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>66</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>37</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>59</v>
       </c>
@@ -15919,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>50</v>
       </c>
@@ -15963,7 +15964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>48</v>
       </c>
@@ -16007,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>61</v>
       </c>
@@ -16051,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>59</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>42</v>
       </c>
@@ -16139,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>48</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -16227,7 +16228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>62</v>
       </c>
@@ -16271,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>44</v>
       </c>
@@ -16315,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>46</v>
       </c>
@@ -16359,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>59</v>
       </c>
@@ -16403,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>58</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>49</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>44</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>66</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>65</v>
       </c>
@@ -16623,7 +16624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>42</v>
       </c>
@@ -16667,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16711,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>65</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>63</v>
       </c>
@@ -16799,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>45</v>
       </c>
@@ -16843,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>41</v>
       </c>
@@ -16887,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>61</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>60</v>
       </c>
@@ -16975,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17019,7 +17020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>62</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>57</v>
       </c>
@@ -17107,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>51</v>
       </c>
@@ -17151,7 +17152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>44</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>60</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>63</v>
       </c>
@@ -17283,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>57</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>51</v>
       </c>
@@ -17371,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>58</v>
       </c>
@@ -17415,7 +17416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>44</v>
       </c>
@@ -17459,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>47</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>61</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>57</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>70</v>
       </c>
@@ -17635,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>76</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>67</v>
       </c>
@@ -17723,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>45</v>
       </c>
@@ -17767,7 +17768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>45</v>
       </c>
@@ -17811,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>39</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>42</v>
       </c>
@@ -17899,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>56</v>
       </c>
@@ -17943,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>58</v>
       </c>
@@ -17987,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>35</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>58</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>41</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>57</v>
       </c>
@@ -18163,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>42</v>
       </c>
@@ -18207,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>62</v>
       </c>
@@ -18251,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>59</v>
       </c>
@@ -18295,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>41</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>50</v>
       </c>
@@ -18383,7 +18384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>59</v>
       </c>
@@ -18427,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>61</v>
       </c>
@@ -18471,7 +18472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>54</v>
       </c>
@@ -18515,7 +18516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>54</v>
       </c>
@@ -18559,7 +18560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>52</v>
       </c>
@@ -18603,7 +18604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>47</v>
       </c>
@@ -18647,7 +18648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>66</v>
       </c>
@@ -18691,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>58</v>
       </c>
@@ -18735,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>64</v>
       </c>
@@ -18779,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>50</v>
       </c>
@@ -18823,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>44</v>
       </c>
@@ -18867,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>67</v>
       </c>
@@ -18911,7 +18912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>49</v>
       </c>
@@ -18955,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>57</v>
       </c>
@@ -18999,7 +19000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>63</v>
       </c>
@@ -19043,7 +19044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>48</v>
       </c>
@@ -19087,7 +19088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>51</v>
       </c>
@@ -19131,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>60</v>
       </c>
@@ -19175,7 +19176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>59</v>
       </c>
@@ -19219,7 +19220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>45</v>
       </c>
@@ -19263,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>55</v>
       </c>
@@ -19307,7 +19308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>41</v>
       </c>
@@ -19351,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>60</v>
       </c>
@@ -19395,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>54</v>
       </c>
@@ -19439,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>42</v>
       </c>
@@ -19483,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>49</v>
       </c>
@@ -19527,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>46</v>
       </c>
@@ -19571,7 +19572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>56</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>66</v>
       </c>
@@ -19659,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>56</v>
       </c>
@@ -19703,7 +19704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>49</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>54</v>
       </c>
@@ -19791,7 +19792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>57</v>
       </c>
@@ -19835,7 +19836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>65</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>54</v>
       </c>
@@ -19923,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>54</v>
       </c>
@@ -19967,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>62</v>
       </c>
@@ -20011,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>52</v>
       </c>
@@ -20055,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>52</v>
       </c>
@@ -20099,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>60</v>
       </c>
@@ -20143,7 +20144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>63</v>
       </c>
@@ -20187,7 +20188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>66</v>
       </c>
@@ -20231,7 +20232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>42</v>
       </c>
@@ -20275,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>64</v>
       </c>
@@ -20319,7 +20320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>54</v>
       </c>
@@ -20363,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>46</v>
       </c>
@@ -20407,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>67</v>
       </c>
@@ -20451,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>56</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>34</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>57</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>64</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>59</v>
       </c>
@@ -20671,7 +20672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>50</v>
       </c>
@@ -20715,7 +20716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>51</v>
       </c>
@@ -20759,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>54</v>
       </c>
@@ -20803,7 +20804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>53</v>
       </c>
@@ -20847,7 +20848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>52</v>
       </c>
@@ -20891,7 +20892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>40</v>
       </c>
@@ -20935,7 +20936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>58</v>
       </c>
@@ -20979,7 +20980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>41</v>
       </c>
@@ -21023,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>41</v>
       </c>
@@ -21067,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>50</v>
       </c>
@@ -21111,7 +21112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>54</v>
       </c>
@@ -21155,7 +21156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>64</v>
       </c>
@@ -21199,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>51</v>
       </c>
@@ -21243,7 +21244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>46</v>
       </c>
@@ -21287,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>55</v>
       </c>
@@ -21331,7 +21332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>45</v>
       </c>
@@ -21375,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>56</v>
       </c>
@@ -21419,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>66</v>
       </c>
@@ -21463,7 +21464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>38</v>
       </c>
@@ -21507,7 +21508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>62</v>
       </c>
@@ -21551,7 +21552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>55</v>
       </c>
@@ -21595,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>58</v>
       </c>
@@ -21639,7 +21640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>43</v>
       </c>
@@ -21683,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>64</v>
       </c>
@@ -21727,7 +21728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>50</v>
       </c>
@@ -21771,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>53</v>
       </c>
@@ -21815,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>45</v>
       </c>
@@ -21859,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>65</v>
       </c>
@@ -21903,7 +21904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>69</v>
       </c>
@@ -21947,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>69</v>
       </c>
@@ -21991,7 +21992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>67</v>
       </c>
@@ -22035,7 +22036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>68</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>34</v>
       </c>
@@ -22123,7 +22124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>62</v>
       </c>
@@ -22167,7 +22168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>51</v>
       </c>
@@ -22211,7 +22212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>46</v>
       </c>
@@ -22255,7 +22256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>67</v>
       </c>
@@ -22299,7 +22300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>50</v>
       </c>
@@ -22343,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>42</v>
       </c>
@@ -22387,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>56</v>
       </c>
@@ -22431,7 +22432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>41</v>
       </c>
@@ -22475,7 +22476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>42</v>
       </c>
@@ -22519,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>53</v>
       </c>
@@ -22563,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>43</v>
       </c>
@@ -22607,7 +22608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>56</v>
       </c>
@@ -22651,7 +22652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>52</v>
       </c>
@@ -22695,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>62</v>
       </c>
@@ -22739,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>70</v>
       </c>
@@ -22783,7 +22784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>54</v>
       </c>
@@ -22827,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>70</v>
       </c>
@@ -22871,7 +22872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>54</v>
       </c>
@@ -22915,7 +22916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>35</v>
       </c>
@@ -22959,7 +22960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>48</v>
       </c>
@@ -23003,7 +23004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>55</v>
       </c>
@@ -23047,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>58</v>
       </c>
@@ -23091,7 +23092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>54</v>
       </c>
@@ -23135,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>69</v>
       </c>
@@ -23179,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>77</v>
       </c>
@@ -23223,7 +23224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>68</v>
       </c>
@@ -23267,7 +23268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>58</v>
       </c>
@@ -23311,7 +23312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>60</v>
       </c>
@@ -23355,7 +23356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>51</v>
       </c>
@@ -23399,7 +23400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>55</v>
       </c>
@@ -23443,7 +23444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>52</v>
       </c>
@@ -23487,7 +23488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>60</v>
       </c>
@@ -23531,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>58</v>
       </c>
@@ -23575,7 +23576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>64</v>
       </c>
@@ -23619,7 +23620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>37</v>
       </c>
@@ -23663,7 +23664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>59</v>
       </c>
@@ -23707,7 +23708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>51</v>
       </c>
@@ -23751,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>43</v>
       </c>
@@ -23795,7 +23796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>58</v>
       </c>
@@ -23839,7 +23840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>29</v>
       </c>
@@ -23883,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>41</v>
       </c>
@@ -23927,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>63</v>
       </c>
@@ -23971,7 +23972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>51</v>
       </c>
@@ -24015,7 +24016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>54</v>
       </c>
@@ -24059,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>44</v>
       </c>
@@ -24103,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>54</v>
       </c>
@@ -24147,7 +24148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>65</v>
       </c>
@@ -24191,7 +24192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>57</v>
       </c>
@@ -24235,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>63</v>
       </c>
@@ -24279,7 +24280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>35</v>
       </c>
@@ -24323,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>41</v>
       </c>
@@ -24367,7 +24368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>62</v>
       </c>
@@ -24411,7 +24412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>43</v>
       </c>
@@ -24455,7 +24456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>58</v>
       </c>
@@ -24499,7 +24500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>52</v>
       </c>
@@ -24543,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>61</v>
       </c>
@@ -24587,7 +24588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>39</v>
       </c>
@@ -24631,7 +24632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>45</v>
       </c>
@@ -24675,7 +24676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>52</v>
       </c>
@@ -24719,7 +24720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>62</v>
       </c>
@@ -24763,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>62</v>
       </c>
@@ -24807,7 +24808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>53</v>
       </c>
@@ -24851,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>43</v>
       </c>
@@ -24895,7 +24896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>47</v>
       </c>
@@ -24939,7 +24940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>52</v>
       </c>
@@ -24983,7 +24984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>68</v>
       </c>
@@ -25027,7 +25028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>39</v>
       </c>
@@ -25071,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>53</v>
       </c>
@@ -25115,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>62</v>
       </c>
@@ -25159,7 +25160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>51</v>
       </c>
@@ -25203,7 +25204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>60</v>
       </c>
@@ -25247,7 +25248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>65</v>
       </c>
@@ -25291,7 +25292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>65</v>
       </c>
@@ -25335,7 +25336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>60</v>
       </c>
@@ -25379,7 +25380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>60</v>
       </c>
@@ -25423,7 +25424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>54</v>
       </c>
@@ -25467,7 +25468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>44</v>
       </c>
@@ -25512,7 +25513,7 @@
       </c>
       <c r="P253" s="1"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>44</v>
       </c>
@@ -25557,7 +25558,7 @@
       </c>
       <c r="P254" s="1"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>51</v>
       </c>
@@ -25602,7 +25603,7 @@
       </c>
       <c r="P255" s="1"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>59</v>
       </c>
@@ -25647,7 +25648,7 @@
       </c>
       <c r="P256" s="1"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>71</v>
       </c>
@@ -25691,7 +25692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>61</v>
       </c>
@@ -25735,7 +25736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>55</v>
       </c>
@@ -25779,7 +25780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>64</v>
       </c>
@@ -25823,7 +25824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>43</v>
       </c>
@@ -25867,7 +25868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>58</v>
       </c>
@@ -25911,7 +25912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>60</v>
       </c>
@@ -25955,7 +25956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>58</v>
       </c>
@@ -25999,7 +26000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>49</v>
       </c>
@@ -26043,7 +26044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>48</v>
       </c>
@@ -26087,7 +26088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>52</v>
       </c>
@@ -26131,7 +26132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>44</v>
       </c>
@@ -26175,7 +26176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>56</v>
       </c>
@@ -26219,7 +26220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>57</v>
       </c>
@@ -26263,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>67</v>
       </c>
